--- a/src/test/Resources/datatest/EXCEL_GetProductInfo.xlsx
+++ b/src/test/Resources/datatest/EXCEL_GetProductInfo.xlsx
@@ -3,20 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BinhAT\FinalProjectSeleniumJavaCourse062023\src\test\Resources\datatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NameProductGet" sheetId="3" r:id="rId1"/>
+    <sheet name="ProductInfo" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>No</t>
   </si>
@@ -39,13 +40,38 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Discount Price</t>
+  </si>
+  <si>
+    <t>Giỏ quà Tết IBrdO</t>
+  </si>
+  <si>
+    <t>Name Product</t>
+  </si>
+  <si>
+    <t>Adobe Premiere Elements 2022 | PC/Mac Disc</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>$819,280.00</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>GOLDEN GIFT BOX The motifs are hand-molded or cast according to the most modern vacuum casting technology today, the product is processed in detail and meticulously then covered with a layer of 9999 pure gold on the entire surface. The face creates a set of high-class and luxurious products.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,13 +86,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill/>
     </fill>
   </fills>
   <borders count="2">
@@ -97,13 +134,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -386,18 +445,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="21.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.5703125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.5703125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.7109375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="4.7109375"/>
+    <col min="6" max="6" customWidth="true" style="4" width="152.0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,10 +515,39 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="5">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s" s="9">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s" s="10">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
